--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_432__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_432__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,22 +6118,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>13.30310440063477</c:v>
+                  <c:v>13.30309772491455</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>92.82643890380859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.790594100952148</c:v>
+                  <c:v>9.790599822998047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.438967704772949</c:v>
+                  <c:v>4.438955783843994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.86811828613281</c:v>
+                  <c:v>91.86811065673828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.11157989501953</c:v>
+                  <c:v>40.11159515380859</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>94.86616516113281</c:v>
@@ -6142,40 +6142,40 @@
                   <c:v>4.116682529449463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.957768440246582</c:v>
+                  <c:v>5.957780361175537</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>52.84902191162109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.08030700683594</c:v>
+                  <c:v>22.08027839660645</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>88.52548980712891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.60608673095703</c:v>
+                  <c:v>44.6060905456543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.48288726806641</c:v>
+                  <c:v>94.48289489746094</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.293393611907959</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.936955332756042</c:v>
+                  <c:v>-1.936949491500854</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.033360004425049</c:v>
+                  <c:v>4.033371448516846</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>93.19103240966797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.43226623535156</c:v>
+                  <c:v>61.43227005004883</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.04549503326416</c:v>
+                  <c:v>6.045506954193115</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>92.64857482910156</c:v>
@@ -6184,37 +6184,37 @@
                   <c:v>94.85151672363281</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.06245422363281</c:v>
+                  <c:v>94.06246185302734</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>93.59740447998047</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.616922378540039</c:v>
+                  <c:v>7.616928100585938</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.6810302734375</c:v>
+                  <c:v>87.68102264404297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.65612030029297</c:v>
+                  <c:v>79.6561279296875</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>70.87213897705078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.570278167724609</c:v>
+                  <c:v>6.570283889770508</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-2.369014501571655</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.32341766357422</c:v>
+                  <c:v>21.32343482971191</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.3728183805942535</c:v>
+                  <c:v>0.3728125095367432</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.869762897491455</c:v>
+                  <c:v>4.8697509765625</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3.099958658218384</c:v>
@@ -6226,13 +6226,13 @@
                   <c:v>95.40430450439453</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.922115802764893</c:v>
+                  <c:v>3.92212176322937</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.137563228607178</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.764912605285645</c:v>
+                  <c:v>5.7649245262146</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>89.53114318847656</c:v>
@@ -6241,13 +6241,13 @@
                   <c:v>55.14596176147461</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>88.04547119140625</c:v>
+                  <c:v>88.04546356201172</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4.873472690582275</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>46.20694732666016</c:v>
+                  <c:v>46.20694351196289</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>14.00755596160889</c:v>
@@ -6256,34 +6256,34 @@
                   <c:v>1.562684774398804</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.592061281204224</c:v>
+                  <c:v>2.592055320739746</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>94.49794006347656</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.240214824676514</c:v>
+                  <c:v>6.240209102630615</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>94.34181976318359</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>32.37351226806641</c:v>
+                  <c:v>32.37348937988281</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>57.66047286987305</c:v>
+                  <c:v>57.66048049926758</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>81.38580322265625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>41.35636520385742</c:v>
+                  <c:v>41.3563346862793</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>44.60602188110352</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.745152473449707</c:v>
+                  <c:v>9.745140075683594</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>89.60538482666016</c:v>
@@ -6292,13 +6292,13 @@
                   <c:v>1.391023993492126</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>20.23427772521973</c:v>
+                  <c:v>20.23427200317383</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>88.67561340332031</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.843384742736816</c:v>
+                  <c:v>1.843378901481628</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>3.867696046829224</c:v>
@@ -6319,13 +6319,13 @@
                   <c:v>2.660861968994141</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38.72027587890625</c:v>
+                  <c:v>38.72028350830078</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.60265636444092</c:v>
+                  <c:v>10.60265064239502</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>84.32315063476562</c:v>
+                  <c:v>84.32314300537109</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>95.5946044921875</c:v>
@@ -6334,37 +6334,37 @@
                   <c:v>91.20179748535156</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>94.29299163818359</c:v>
+                  <c:v>94.29298400878906</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.13556432723999</c:v>
+                  <c:v>5.135576248168945</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>94.42644500732422</c:v>
+                  <c:v>94.42642974853516</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>19.29975891113281</c:v>
+                  <c:v>19.29973602294922</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>90.74628448486328</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>94.03264617919922</c:v>
+                  <c:v>94.03265380859375</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>92.11257934570312</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>95.47669219970703</c:v>
+                  <c:v>95.47669982910156</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>56.40293502807617</c:v>
+                  <c:v>56.40292739868164</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.0323486328125</c:v>
+                  <c:v>4.032342910766602</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.287575960159302</c:v>
+                  <c:v>1.287564277648926</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>80.61153411865234</c:v>
@@ -6373,13 +6373,13 @@
                   <c:v>92.69811248779297</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.81106567382812</c:v>
+                  <c:v>90.81105041503906</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.118884325027466</c:v>
+                  <c:v>1.118890285491943</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.8937446475028992</c:v>
+                  <c:v>0.8937388062477112</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>4.459275245666504</c:v>
@@ -6391,10 +6391,10 @@
                   <c:v>94.41216278076172</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.787692546844482</c:v>
+                  <c:v>6.787698268890381</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>26.66818237304688</c:v>
+                  <c:v>26.66819381713867</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>93.21511077880859</c:v>
@@ -6403,28 +6403,28 @@
                   <c:v>1.803734064102173</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.162112712860107</c:v>
+                  <c:v>6.162130355834961</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>91.15933227539062</c:v>
+                  <c:v>91.15933990478516</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>94.03419494628906</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.412416458129883</c:v>
+                  <c:v>4.412410259246826</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>90.30595397949219</c:v>
+                  <c:v>90.30596160888672</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.009495258331299</c:v>
+                  <c:v>6.0094895362854</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>25.43197441101074</c:v>
+                  <c:v>25.43196868896484</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>74.79407501220703</c:v>
+                  <c:v>74.7940673828125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13.30310440063477</v>
+        <v>13.30309772491455</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.790594100952148</v>
+        <v>9.790599822998047</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.438967704772949</v>
+        <v>4.438955783843994</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>91.86811828613281</v>
+        <v>91.86811065673828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>40.11157989501953</v>
+        <v>40.11159515380859</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>5.957768440246582</v>
+        <v>5.957780361175537</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>22.08030700683594</v>
+        <v>22.08027839660645</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.60608673095703</v>
+        <v>44.6060905456543</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>93.33920000000001</v>
       </c>
       <c r="F15">
-        <v>94.48288726806641</v>
+        <v>94.48289489746094</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>-1.936955332756042</v>
+        <v>-1.936949491500854</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.033360004425049</v>
+        <v>4.033371448516846</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>61.43226623535156</v>
+        <v>61.43227005004883</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>6.04549503326416</v>
+        <v>6.045506954193115</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>94.06245422363281</v>
+        <v>94.06246185302734</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>7.616922378540039</v>
+        <v>7.616928100585938</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>87.6810302734375</v>
+        <v>87.68102264404297</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>79.65612030029297</v>
+        <v>79.6561279296875</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>6.570278167724609</v>
+        <v>6.570283889770508</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>21.32341766357422</v>
+        <v>21.32343482971191</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.3728183805942535</v>
+        <v>0.3728125095367432</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>4.869762897491455</v>
+        <v>4.8697509765625</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3.922115802764893</v>
+        <v>3.92212176322937</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>5.764912605285645</v>
+        <v>5.7649245262146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>88.04547119140625</v>
+        <v>88.04546356201172</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>46.20694732666016</v>
+        <v>46.20694351196289</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2.592061281204224</v>
+        <v>2.592055320739746</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>6.240214824676514</v>
+        <v>6.240209102630615</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>32.37351226806641</v>
+        <v>32.37348937988281</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>57.66047286987305</v>
+        <v>57.66048049926758</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>41.35636520385742</v>
+        <v>41.3563346862793</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>9.745152473449707</v>
+        <v>9.745140075683594</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>20.23427772521973</v>
+        <v>20.23427200317383</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.843384742736816</v>
+        <v>1.843378901481628</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>38.72027587890625</v>
+        <v>38.72028350830078</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>10.60265636444092</v>
+        <v>10.60265064239502</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>84.32315063476562</v>
+        <v>84.32314300537109</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>94.6035</v>
       </c>
       <c r="F74">
-        <v>94.29299163818359</v>
+        <v>94.29298400878906</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>5.13556432723999</v>
+        <v>5.135576248168945</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>94.42644500732422</v>
+        <v>94.42642974853516</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>19.29975891113281</v>
+        <v>19.29973602294922</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>94.49079999999999</v>
       </c>
       <c r="F79">
-        <v>94.03264617919922</v>
+        <v>94.03265380859375</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>95.47669219970703</v>
+        <v>95.47669982910156</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>56.40293502807617</v>
+        <v>56.40292739868164</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>4.0323486328125</v>
+        <v>4.032342910766602</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.287575960159302</v>
+        <v>1.287564277648926</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>91.53700000000001</v>
       </c>
       <c r="F87">
-        <v>90.81106567382812</v>
+        <v>90.81105041503906</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.118884325027466</v>
+        <v>1.118890285491943</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.8937446475028992</v>
+        <v>0.8937388062477112</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>6.787692546844482</v>
+        <v>6.787698268890381</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>26.66818237304688</v>
+        <v>26.66819381713867</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>6.162112712860107</v>
+        <v>6.162130355834961</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>91.6399</v>
       </c>
       <c r="F98">
-        <v>91.15933227539062</v>
+        <v>91.15933990478516</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>4.412416458129883</v>
+        <v>4.412410259246826</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>97.31619999999999</v>
       </c>
       <c r="F101">
-        <v>90.30595397949219</v>
+        <v>90.30596160888672</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>6.009495258331299</v>
+        <v>6.0094895362854</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>25.43197441101074</v>
+        <v>25.43196868896484</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>74.79407501220703</v>
+        <v>74.7940673828125</v>
       </c>
     </row>
     <row r="105" spans="1:6">
